--- a/biology/Zoologie/Dolabella_(mollusque)/Dolabella_(mollusque).xlsx
+++ b/biology/Zoologie/Dolabella_(mollusque)/Dolabella_(mollusque).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lièvres de mer, Dolabelles
 Dolabella est un genre de mollusques gastéropodes de la famille des Aplysiidae. Ces espèces sont dépourvues de coquille et souvent appelées lièvres de mer ou dolabelles. 
@@ -512,10 +524,12 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (11 août 2023)[1] :
-Dolabella auricularia (Lightfoot, 1786) -- Lièvre de mer à oreille[2] -- Indo-Pacifique tropical
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (11 août 2023) :
+Dolabella auricularia (Lightfoot, 1786) -- Lièvre de mer à oreille -- Indo-Pacifique tropical
 Dolabella californica Stearns, 1877 -- Californie
 Dolabella guayaquilensis G. B. Sowerby II, 1868</t>
         </is>
@@ -545,10 +559,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Dolabella Lamarck, 1801[1].
-Dolabella a pour synonyme[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Dolabella Lamarck, 1801.
+Dolabella a pour synonyme :
 Dollabella Gistl, 1848</t>
         </is>
       </c>
